--- a/docs/miniJava transition table.xlsx
+++ b/docs/miniJava transition table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonan\Documents\Compiladores\MiniJava-Compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF7BA4-61C9-420F-9E8B-C40C284978EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D6A7D-B11D-49E6-AAAA-478F39012EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD05B5F5-C68A-493F-8CAF-FB0F8DAD88B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>e0</t>
   </si>
@@ -259,6 +259,21 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>eUniChar</t>
+  </si>
+  <si>
+    <t>contar que el lexema no tenga mas de 4 numero (o los que permita unicode)</t>
+  </si>
+  <si>
+    <t>eStrSp</t>
   </si>
 </sst>
 </file>
@@ -280,18 +295,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -301,12 +310,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -343,9 +352,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -357,21 +388,611 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -382,6 +1003,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E69D3822-06A6-44E5-825C-930B91EBC70A}" name="Table1" displayName="Table1" ref="A1:AF44" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="32" tableBorderDxfId="33">
+  <autoFilter ref="A1:AF44" xr:uid="{E69D3822-06A6-44E5-825C-930B91EBC70A}"/>
+  <tableColumns count="32">
+    <tableColumn id="1" xr3:uid="{A676BBC8-584C-464D-9A6A-42ECA213DB52}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{4B2F1F24-0917-4F71-912A-BB19A7ED730F}" name="dig" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{6B329BC0-50C0-4FDF-A7EC-F6D7EC3B18E4}" name="may" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{BCC3E0C3-C09E-4B25-BF04-35AD935C9537}" name="min" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{E9432E55-C899-48B6-A8CF-C827607D0543}" name="_" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{E81D729C-C080-4C42-9CD8-2914D1D2B650}" name="(" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{C9D0EA67-4FE7-453A-AD46-F0699CEC0F31}" name=")" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{C3544D30-7B20-4191-96A1-5784ED65152C}" name="{" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{84B22966-13AB-4700-A930-FCD34A90FBEF}" name="}" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{1BBCDC64-73C9-479D-8B0C-ACF76A71B1E4}" name=";" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{CDD57CF2-D365-425F-946D-EC52C03671E8}" name="," dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{4B0FA89B-A929-4FE9-80DF-55D56586F9F4}" name="." dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{6A2AF4E1-0384-4C47-92E2-386F0CD9E5F5}" name=":" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{2636FC44-B6BA-4114-AEB8-B0A966339E8B}" name="&lt;" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{D6A97A92-ABA4-43D4-ACBB-33C186ECE0EE}" name="&gt;" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{F2026F81-9F41-45F0-8096-689D1AB04FB8}" name="! " dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{3754CC1E-DC73-44FE-BCFB-C1EF6EB0C2FF}" name="=" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{C008C330-F961-4892-8825-19C482A8AB79}" name="&amp;" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{05873FF9-0976-4F3A-A47E-5651AFF96FB9}" name="|" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{E5C5F8D6-330A-4EA6-905E-0C3F3AC9EC9D}" name="%" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{D1D1497C-4D33-45A5-83BD-F83C67720E61}" name="+" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{4AEB0CC8-6C5C-4CA5-92C7-8B65665EE43C}" name="-" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{BFC2FE93-2D20-4D65-9DC0-70C3AF7A8FA1}" name="*" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{51C3BE7B-BEE9-4FC3-9648-9E46E34EC2F9}" name="/" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{28AFBC79-1E90-46F3-9CA5-A6651A8A7649}" name="'" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{15F4DE81-C64D-41E2-9203-A57748E769E1}" name="&quot;" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{D8CFF55D-D027-4E30-BB24-3B3422A766FF}" name="\" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{0824C00E-9968-4343-837E-CC7D1ECBF766}" name="Whitespace" dataDxfId="5"/>
+    <tableColumn id="32" xr3:uid="{65A48C38-B65E-46DF-AC92-36D75FF747C1}" name="u" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{B01000BE-60B3-4F32-BE7E-FB89CFE5DBD1}" name="\n" dataDxfId="4"/>
+    <tableColumn id="30" xr3:uid="{0E4E8C74-D9EA-4EDA-8B9B-30A5BD2CB6FC}" name="EOF" dataDxfId="3"/>
+    <tableColumn id="31" xr3:uid="{89F6F59B-5A96-4123-8DAE-C801FBF1B395}" name="Otros" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,88 +1343,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732FE3C2-86FE-4D7F-AF1E-DD0123C089F4}">
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X34" sqref="X34"/>
+      <selection pane="bottomRight" activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.5703125" customWidth="1"/>
+    <col min="30" max="31" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="7" t="s">
@@ -781,20 +1446,23 @@
         <v>58</v>
       </c>
       <c r="AC1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -874,16 +1542,17 @@
       <c r="AB2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -918,9 +1587,10 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -961,9 +1631,10 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1004,9 +1675,10 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1"/>
@@ -1039,9 +1711,10 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1"/>
@@ -1074,9 +1747,10 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1"/>
@@ -1109,9 +1783,10 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1"/>
@@ -1144,9 +1819,10 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1"/>
@@ -1179,9 +1855,10 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="1"/>
@@ -1214,9 +1891,10 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1"/>
@@ -1249,9 +1927,10 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="1"/>
@@ -1284,9 +1963,10 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="1"/>
@@ -1321,9 +2001,10 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="1"/>
@@ -1356,9 +2037,10 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1"/>
@@ -1393,9 +2075,10 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="1"/>
@@ -1428,9 +2111,10 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="1"/>
@@ -1465,9 +2149,10 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="1"/>
@@ -1500,9 +2185,10 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1"/>
@@ -1537,9 +2223,10 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="1"/>
@@ -1572,9 +2259,10 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="1"/>
@@ -1609,9 +2297,10 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="AF22" s="1"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="1"/>
@@ -1644,9 +2333,10 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="AF23" s="1"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="1"/>
@@ -1681,9 +2371,10 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="AF24" s="1"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1"/>
@@ -1716,9 +2407,10 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="AF25" s="1"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1"/>
@@ -1751,9 +2443,10 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="AF26" s="1"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="1"/>
@@ -1788,9 +2481,10 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1"/>
@@ -1823,9 +2517,10 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="AF28" s="1"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1"/>
@@ -1860,9 +2555,10 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="AF29" s="1"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="1"/>
@@ -1895,9 +2591,10 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="AF30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="1"/>
@@ -1930,9 +2627,10 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="AF31" s="1"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="1"/>
@@ -1969,9 +2667,10 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="AF32" s="1"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="1"/>
@@ -2001,19 +2700,20 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1" t="s">
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1" t="s">
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B34" s="1"/>
@@ -2046,15 +2746,16 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1" t="s">
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE34" s="1" t="s">
+      <c r="AF34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="1"/>
@@ -2089,12 +2790,13 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AG35" t="s">
+      <c r="AF35" s="1"/>
+      <c r="AH35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="1"/>
@@ -2127,15 +2829,16 @@
       </c>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1" t="s">
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AF36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="1"/>
@@ -2165,16 +2868,21 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
+      <c r="AC37" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AD37" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AE37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF37" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="1"/>
@@ -2207,13 +2915,14 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1" t="s">
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE38" s="1"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="AF38" s="1"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="1"/>
@@ -2246,12 +2955,18 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AH39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2274,25 +2989,20 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="Y40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
-      <c r="AC40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE40" s="1" t="s">
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2316,30 +3026,120 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
+      <c r="X41" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
+      <c r="Z41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="AD41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF41" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AE43" t="s">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF45" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>